--- a/pages/select_dict.xlsx
+++ b/pages/select_dict.xlsx
@@ -484,17 +484,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -502,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -510,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -518,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -526,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -534,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -542,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -550,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -558,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -566,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -574,7 +572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -582,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -590,7 +588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -598,7 +596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -606,7 +604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -614,7 +612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -622,7 +620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -630,7 +628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -638,7 +636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -646,7 +644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -654,7 +652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -662,7 +660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -670,7 +668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -678,7 +676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -686,7 +684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
   </sheetData>
@@ -700,13 +698,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -714,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -722,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -730,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -738,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -746,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -754,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -762,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -770,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -778,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -786,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -794,7 +792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -802,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -810,7 +808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -818,7 +816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -826,7 +824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -834,7 +832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -842,7 +840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -850,7 +848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -858,7 +856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -866,7 +864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -874,7 +872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -882,7 +880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
